--- a/data/trans_dic/P25A$otro-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25A$otro-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,55</t>
+          <t>0,76; 6,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,29</t>
+          <t>0,49; 4,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 11,77</t>
+          <t>2,73; 13,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,43; 24,43</t>
+          <t>2,59; 24,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 11,23</t>
+          <t>1,33; 12,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,44; 21,36</t>
+          <t>3,36; 20,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 8,72</t>
+          <t>2,29; 8,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,9</t>
+          <t>1,09; 4,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,94; 12,49</t>
+          <t>3,75; 11,4</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 5,83</t>
+          <t>1,01; 6,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,48</t>
+          <t>0,41; 3,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,79; 14,87</t>
+          <t>6,19; 15,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,2; 25,46</t>
+          <t>8,28; 27,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,27; 15,33</t>
+          <t>3,34; 15,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,17; 15,39</t>
+          <t>4,19; 15,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,84; 10,3</t>
+          <t>3,82; 9,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,94</t>
+          <t>1,53; 5,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,29; 13,62</t>
+          <t>6,31; 13,21</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,15</t>
+          <t>0,0; 4,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,5</t>
+          <t>0,53; 4,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 11,12</t>
+          <t>3,12; 11,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,42; 25,58</t>
+          <t>4,4; 24,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 10,81</t>
+          <t>1,93; 10,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,06; 28,39</t>
+          <t>9,34; 26,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 7,53</t>
+          <t>1,65; 7,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 5,43</t>
+          <t>1,42; 5,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 14,68</t>
+          <t>6,32; 14,87</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1021,42 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 8,41</t>
+          <t>1,83; 8,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,01; 19,89</t>
+          <t>8,87; 19,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 13,85</t>
+          <t>2,17; 13,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,47</t>
+          <t>0,82; 7,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,31; 22,81</t>
+          <t>8,9; 23,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 6,77</t>
+          <t>1,85; 7,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 6,3</t>
+          <t>1,6; 6,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,41; 19,08</t>
+          <t>10,22; 19,13</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,76</t>
+          <t>1,35; 3,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,35</t>
+          <t>1,3; 3,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,27; 12,08</t>
+          <t>7,25; 12,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,47; 15,37</t>
+          <t>7,25; 15,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,91; 7,53</t>
+          <t>2,87; 7,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,14; 16,99</t>
+          <t>9,85; 17,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,52; 6,37</t>
+          <t>3,48; 6,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,02</t>
+          <t>2,13; 4,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,68; 12,7</t>
+          <t>8,67; 12,91</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, el consejo médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3124</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3053</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7182</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4894</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2980</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8017</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6033</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>12379</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>982; 8455</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>919; 8175</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3229; 15578</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1072; 10119</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>955; 8878</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1806; 11037</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3915; 15176</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2852; 12277</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6448; 19607</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5148</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3187</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17406</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12354</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8095</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7315</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>17502</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11282</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>24720</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1884; 11583</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1027; 8729</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10976; 26599</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6374; 20849</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3282; 15335</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3613; 13466</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>10085; 26229</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5320; 19684</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>16631; 34811</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1885</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2877</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8576</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4633</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12429</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6518</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7913</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>21004</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6587</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>911; 7844</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4173; 15597</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1747; 9779</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1996; 11209</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6963; 19728</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2870; 12982</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3924; 15052</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13145; 30946</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4158</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8028</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>24163</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>5606</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3033</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>18320</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9763</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>11060</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>42483</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>844; 10042</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3778; 17163</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>15649; 34467</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2014; 12262</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>926; 8175</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>10780; 28191</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4946; 19307</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5124; 20610</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>30419; 56922</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>14314</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17144</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>57326</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>27487</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>19143</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>43260</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>41800</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>36288</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>100586</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8406; 24022</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10634; 29115</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>43893; 73216</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>18170; 38337</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>11097; 28684</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>33090; 57877</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>30420; 56623</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>25667; 51431</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>81630; 121487</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P25A$otro-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25A$otro-Habitat-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo para dejar de fumar fue, al menos, el consejo médico</t>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, otros motivos</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1226,7 +1226,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo para dejar de fumar fue, al menos, el consejo médico</t>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, otros motivos</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
